--- a/dijkstra_b.xlsx
+++ b/dijkstra_b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\SC2001\Lab\school_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B1980B-799D-4B40-BC5E-0ACC63B052B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42364475-56A3-4727-A118-79B6405A43BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D204D345-3936-403A-9950-9AD83508C326}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D204D345-3936-403A-9950-9AD83508C326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
     <t>V</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>%increase</t>
+  </si>
+  <si>
+    <t>GROUP BASED ON E</t>
   </si>
 </sst>
 </file>
@@ -100,13 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ECC285-032D-4DAA-81C6-C8F064C0A6F4}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,52 +437,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>1</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>3</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>4</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>5</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>7</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>8</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>9</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -822,11 +826,11 @@
         <v>1.0596000000000001</v>
       </c>
       <c r="O8">
-        <f>AVERAGE(E8:N8)</f>
+        <f t="shared" ref="O8:O14" si="4">AVERAGE(E8:N8)</f>
         <v>1.0416099999999999</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P9" si="4">(O8-O7)/O7*100</f>
+        <f t="shared" ref="P8:P9" si="5">(O8-O7)/O7*100</f>
         <v>16.577689733516859</v>
       </c>
     </row>
@@ -874,11 +878,11 @@
         <v>3.5741000000000001</v>
       </c>
       <c r="O9" s="1">
-        <f>AVERAGE(E9:N9)</f>
+        <f t="shared" si="4"/>
         <v>3.2841900000000002</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215.29939228694045</v>
       </c>
     </row>
@@ -924,7 +928,7 @@
         <v>0.78110000000000002</v>
       </c>
       <c r="O10" s="3">
-        <f>AVERAGE(E10:N10)</f>
+        <f t="shared" si="4"/>
         <v>0.91554999999999997</v>
       </c>
     </row>
@@ -971,7 +975,7 @@
         <v>1.6001000000000001</v>
       </c>
       <c r="O11" s="3">
-        <f>AVERAGE(E11:N11)</f>
+        <f t="shared" si="4"/>
         <v>1.2341099999999998</v>
       </c>
       <c r="P11">
@@ -989,7 +993,7 @@
         <v>500</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D13" si="5">(C12-C11)/C11*100</f>
+        <f t="shared" ref="D12:D13" si="6">(C12-C11)/C11*100</f>
         <v>150</v>
       </c>
       <c r="E12" s="3">
@@ -1023,11 +1027,11 @@
         <v>1.4982</v>
       </c>
       <c r="O12" s="3">
-        <f>AVERAGE(E12:N12)</f>
+        <f t="shared" si="4"/>
         <v>1.46461</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:P13" si="6">(O12-O11)/O11*100</f>
+        <f t="shared" ref="P12:P13" si="7">(O12-O11)/O11*100</f>
         <v>18.677427457844129</v>
       </c>
     </row>
@@ -1041,7 +1045,7 @@
         <v>9900</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1880</v>
       </c>
       <c r="E13" s="1">
@@ -1075,11 +1079,11 @@
         <v>7.5873999999999997</v>
       </c>
       <c r="O13" s="1">
-        <f>AVERAGE(E13:N13)</f>
+        <f t="shared" si="4"/>
         <v>7.6321800000000009</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>421.10664272400174</v>
       </c>
     </row>
@@ -1125,7 +1129,7 @@
         <v>2.0901999999999998</v>
       </c>
       <c r="O14" s="3">
-        <f>AVERAGE(E14:N14)</f>
+        <f t="shared" si="4"/>
         <v>2.1213800000000003</v>
       </c>
     </row>
@@ -1172,7 +1176,7 @@
         <v>2.3563000000000001</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" ref="O15:O21" si="7">AVERAGE(E15:N15)</f>
+        <f t="shared" ref="O15:O21" si="8">AVERAGE(E15:N15)</f>
         <v>2.6999900000000006</v>
       </c>
       <c r="P15">
@@ -1189,7 +1193,7 @@
         <v>2500</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D17" si="8">(C16-C15)/C15*100</f>
+        <f t="shared" ref="D16:D17" si="9">(C16-C15)/C15*100</f>
         <v>150</v>
       </c>
       <c r="E16">
@@ -1223,11 +1227,11 @@
         <v>3.4249999999999998</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7150300000000001</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:P17" si="9">(O16-O15)/O15*100</f>
+        <f t="shared" ref="P16:P17" si="10">(O16-O15)/O15*100</f>
         <v>37.594213311901129</v>
       </c>
     </row>
@@ -1241,7 +1245,7 @@
         <v>249500</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9880</v>
       </c>
       <c r="E17" s="1">
@@ -1275,11 +1279,11 @@
         <v>88.897199999999998</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>84.286749999999998</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2168.8040204251379</v>
       </c>
     </row>
@@ -1325,7 +1329,7 @@
         <v>4.1143999999999998</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8214899999999998</v>
       </c>
     </row>
@@ -1372,7 +1376,7 @@
         <v>4.6830999999999996</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4981600000000004</v>
       </c>
       <c r="P19">
@@ -1389,7 +1393,7 @@
         <v>5000</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D21" si="10">(C20-C19)/C19*100</f>
+        <f t="shared" ref="D20:D21" si="11">(C20-C19)/C19*100</f>
         <v>150</v>
       </c>
       <c r="E20" s="3">
@@ -1423,11 +1427,11 @@
         <v>6.5004999999999997</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3370900000000008</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:P21" si="11">(O20-O19)/O19*100</f>
+        <f t="shared" ref="P20:P21" si="12">(O20-O19)/O19*100</f>
         <v>40.881827236025401</v>
       </c>
     </row>
@@ -1441,7 +1445,7 @@
         <v>999000</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19880</v>
       </c>
       <c r="E21" s="1">
@@ -1475,654 +1479,1137 @@
         <v>347.43290000000002</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>368.07129999999995</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5708.2069214734202</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="F30" s="1">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="G30" s="1">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="H30" s="1">
         <v>4</v>
       </c>
-      <c r="H29">
+      <c r="I30" s="1">
         <v>5</v>
       </c>
-      <c r="I29">
+      <c r="J30" s="1">
         <v>6</v>
       </c>
-      <c r="J29">
+      <c r="K30" s="1">
         <v>7</v>
       </c>
-      <c r="K29">
+      <c r="L30" s="1">
         <v>8</v>
       </c>
-      <c r="L29">
+      <c r="M30" s="1">
         <v>9</v>
       </c>
-      <c r="M29">
+      <c r="N30" s="1">
         <v>10</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O30" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="P30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>0</v>
       </c>
-      <c r="C30">
-        <f>A30</f>
+      <c r="D31">
+        <f>A31</f>
         <v>10</v>
       </c>
-      <c r="D30">
-        <v>1.6852</v>
-      </c>
-      <c r="E30">
-        <v>1.5603</v>
-      </c>
-      <c r="F30">
-        <v>1.1738999999999999</v>
-      </c>
-      <c r="G30">
-        <v>1.6891</v>
-      </c>
-      <c r="H30">
-        <v>2.0032999999999999</v>
-      </c>
-      <c r="I30">
-        <v>1.4267000000000001</v>
-      </c>
-      <c r="J30">
-        <v>1.4956</v>
-      </c>
-      <c r="K30">
-        <v>1.6044</v>
-      </c>
-      <c r="L30">
-        <v>1.4064000000000001</v>
-      </c>
-      <c r="M30">
-        <v>1.5061</v>
-      </c>
-      <c r="N30">
-        <f>AVERAGE(D30:M30)</f>
-        <v>1.5550999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="E31">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.745</v>
+      </c>
+      <c r="J31">
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="M31">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="N31">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="O31">
+        <f>AVERAGE(E31:N31)</f>
+        <v>0.67273999999999989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <f>(A32-A31)/A31*100</f>
+        <v>400</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>A32</f>
+        <v>50</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.6895</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="O32">
+        <f>AVERAGE(E32:N32)</f>
+        <v>0.74829999999999985</v>
+      </c>
+      <c r="P32">
+        <f>(O32-O31)/O31*100</f>
+        <v>11.231679400659983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B35" si="13">(A33-A32)/A32*100</f>
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>A33</f>
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1.1269</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1.0316000000000001</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="O33" s="3">
+        <f>AVERAGE(E33:N33)</f>
+        <v>0.91554999999999997</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P35" si="14">(O33-O32)/O32*100</f>
+        <v>22.350661499398658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>500</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>A34</f>
+        <v>500</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.0731999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2.4344999999999999</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2.0672999999999999</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2.0592000000000001</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2.1591</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1.9524999999999999</v>
+      </c>
+      <c r="K34" s="3">
+        <v>2.0924</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2.1594000000000002</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2.0901999999999998</v>
+      </c>
+      <c r="O34" s="3">
+        <f>AVERAGE(E34:N34)</f>
+        <v>2.1213800000000003</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="14"/>
+        <v>131.70553219376333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <f>A35</f>
+        <v>1000</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3.8108</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3.2101999999999999</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4.0415000000000001</v>
+      </c>
+      <c r="H35" s="6">
+        <v>3.3060999999999998</v>
+      </c>
+      <c r="I35" s="6">
+        <v>4.2371999999999996</v>
+      </c>
+      <c r="J35" s="6">
+        <v>3.6955</v>
+      </c>
+      <c r="K35" s="6">
+        <v>3.9641999999999999</v>
+      </c>
+      <c r="L35" s="6">
+        <v>3.6606000000000001</v>
+      </c>
+      <c r="M35" s="6">
+        <v>4.1744000000000003</v>
+      </c>
+      <c r="N35" s="6">
+        <v>4.1143999999999998</v>
+      </c>
+      <c r="O35" s="5">
+        <f>AVERAGE(E35:N35)</f>
+        <v>3.8214899999999998</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="14"/>
+        <v>80.141700214011607</v>
+      </c>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31">
-        <f>A30*2</f>
+      <c r="D36" s="2">
+        <f>A31*2</f>
         <v>20</v>
       </c>
-      <c r="D31">
-        <v>1.2605999999999999</v>
-      </c>
-      <c r="E31">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="F31">
-        <v>1.5521</v>
-      </c>
-      <c r="G31">
-        <v>1.5031000000000001</v>
-      </c>
-      <c r="H31">
-        <v>2.1185</v>
-      </c>
-      <c r="I31">
-        <v>1.6735</v>
-      </c>
-      <c r="J31">
-        <v>1.704</v>
-      </c>
-      <c r="K31">
-        <v>1.6577</v>
-      </c>
-      <c r="L31">
-        <v>2.2280000000000002</v>
-      </c>
-      <c r="M31">
-        <v>1.7228000000000001</v>
-      </c>
-      <c r="N31">
-        <f>AVERAGE(D31:M31)</f>
-        <v>1.6881299999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="E36" s="2">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.6149</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.72540000000000004</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.65969999999999995</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="O36" s="2">
+        <f>AVERAGE(E36:N36)</f>
+        <v>0.67709999999999992</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <f>(A37-A36)/A36*100</f>
+        <v>400</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <f>A32*2</f>
+        <v>100</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.7964</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1.0174000000000001</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1.2652000000000001</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="O37" s="2">
+        <f>AVERAGE(E37:N37)</f>
+        <v>0.89349000000000012</v>
+      </c>
+      <c r="P37">
+        <f>(O37-O36)/O36*100</f>
+        <v>31.9583517944174</v>
+      </c>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B40" si="15">(A38-A37)/A37*100</f>
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <f>A33*2</f>
+        <v>200</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1.0467</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.1075999999999999</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.5242</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1.0186999999999999</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.2296</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1.4484999999999999</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1.0824</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1.0688</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1.6001000000000001</v>
+      </c>
+      <c r="O38" s="3">
+        <f>AVERAGE(E38:N38)</f>
+        <v>1.2341099999999998</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38:P40" si="16">(O38-O37)/O37*100</f>
+        <v>38.122418829533586</v>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>500</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2">
+        <f>A34*2</f>
+        <v>1000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.4958</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2.9781</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.5139</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3.4371</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2.6291000000000002</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2.4523000000000001</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2.5865</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2.5072000000000001</v>
+      </c>
+      <c r="M39" s="2">
+        <v>3.0436000000000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2.3563000000000001</v>
+      </c>
+      <c r="O39" s="3">
+        <f>AVERAGE(E39:N39)</f>
+        <v>2.6999900000000006</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="16"/>
+        <v>118.78033562648393</v>
+      </c>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <f>A35*2</f>
+        <v>2000</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4.3715000000000002</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4.4172000000000002</v>
+      </c>
+      <c r="G40" s="6">
+        <v>4.7202000000000002</v>
+      </c>
+      <c r="H40" s="6">
+        <v>4.1515000000000004</v>
+      </c>
+      <c r="I40" s="6">
+        <v>4.7195</v>
+      </c>
+      <c r="J40" s="6">
+        <v>4.6098999999999997</v>
+      </c>
+      <c r="K40" s="6">
+        <v>3.9872999999999998</v>
+      </c>
+      <c r="L40" s="6">
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="M40" s="6">
+        <v>5.0164</v>
+      </c>
+      <c r="N40" s="6">
+        <v>4.6830999999999996</v>
+      </c>
+      <c r="O40" s="5">
+        <f>AVERAGE(E40:N40)</f>
+        <v>4.4981600000000004</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="16"/>
+        <v>66.599135552353872</v>
+      </c>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <f>A30*5</f>
+      <c r="D41" s="2">
+        <f>5*A41</f>
         <v>50</v>
       </c>
-      <c r="D32">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="E32">
-        <v>1.9439</v>
-      </c>
-      <c r="F32">
-        <v>1.7990999999999999</v>
-      </c>
-      <c r="G32">
-        <v>1.7405999999999999</v>
-      </c>
-      <c r="H32">
-        <v>2.0594000000000001</v>
-      </c>
-      <c r="I32">
-        <v>1.9845999999999999</v>
-      </c>
-      <c r="J32">
-        <v>1.7474000000000001</v>
-      </c>
-      <c r="K32">
-        <v>1.6348</v>
-      </c>
-      <c r="L32">
-        <v>2.8727</v>
-      </c>
-      <c r="M32">
-        <v>1.5116000000000001</v>
-      </c>
-      <c r="N32">
-        <f>AVERAGE(D32:M32)</f>
-        <v>1.9210100000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="E41" s="2">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="O41" s="2">
+        <f>AVERAGE(E41:N41)</f>
+        <v>0.72470999999999997</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <f>(A42-A41)/A41*100</f>
+        <v>400</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <f>A33*5</f>
+        <v>500</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.0417000000000001</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1.4037999999999999</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.9849</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1.1940999999999999</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1.0596000000000001</v>
+      </c>
+      <c r="O42" s="2">
+        <f>AVERAGE(E42:N42)</f>
+        <v>1.0416099999999999</v>
+      </c>
+      <c r="P42">
+        <f>(O42-O41)/O41*100</f>
+        <v>43.727835961970989</v>
+      </c>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43:B45" si="17">(A43-A42)/A42*100</f>
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <f>A33*5</f>
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.4838</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1.5348999999999999</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1.2987</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1.9072</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1.5228999999999999</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1.4029</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1.2755000000000001</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1.4982</v>
+      </c>
+      <c r="O43" s="3">
+        <f>AVERAGE(E43:N43)</f>
+        <v>1.46461</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43:P45" si="18">(O43-O42)/O42*100</f>
+        <v>40.610209195380236</v>
+      </c>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <f>A34*5</f>
+        <v>2500</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3.1063999999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4.2881999999999998</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3.4361000000000002</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4.1052</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3.5651000000000002</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4.1204000000000001</v>
+      </c>
+      <c r="K44" s="2">
+        <v>4.3098000000000001</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3.6215999999999999</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3.1724999999999999</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="O44" s="3">
+        <f>AVERAGE(E44:N44)</f>
+        <v>3.7150300000000001</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="18"/>
+        <v>153.65319095185751</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1">
+        <f>A35*5</f>
+        <v>5000</v>
+      </c>
+      <c r="E45" s="6">
+        <v>6.7746000000000004</v>
+      </c>
+      <c r="F45" s="6">
+        <v>6.5381</v>
+      </c>
+      <c r="G45" s="6">
+        <v>6.7930000000000001</v>
+      </c>
+      <c r="H45" s="6">
+        <v>6</v>
+      </c>
+      <c r="I45" s="6">
+        <v>5.9515000000000002</v>
+      </c>
+      <c r="J45" s="6">
+        <v>6.3409000000000004</v>
+      </c>
+      <c r="K45" s="6">
+        <v>6.1158000000000001</v>
+      </c>
+      <c r="L45" s="6">
+        <v>6.4333</v>
+      </c>
+      <c r="M45" s="6">
+        <v>5.9231999999999996</v>
+      </c>
+      <c r="N45" s="6">
+        <v>6.5004999999999997</v>
+      </c>
+      <c r="O45" s="5">
+        <f>AVERAGE(E45:N45)</f>
+        <v>6.3370900000000008</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="18"/>
+        <v>70.579779974858909</v>
+      </c>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1">
-        <f>A30*(A30-1)</f>
+      <c r="D46" s="2">
+        <f>A31*(A31-1)</f>
         <v>90</v>
       </c>
-      <c r="D33" s="1">
-        <v>2.2481</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.8268</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2.0583</v>
-      </c>
-      <c r="G33" s="1">
-        <v>2.2033999999999998</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2.1756000000000002</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1.8084</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2.4441999999999999</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2.4016000000000002</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1.7930999999999999</v>
-      </c>
-      <c r="M33" s="1">
-        <v>2.3271999999999999</v>
-      </c>
-      <c r="N33" s="1">
-        <f>AVERAGE(D33:M33)</f>
-        <v>2.2286700000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="E46" s="2">
+        <v>0.81779999999999997</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.1527000000000001</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.2537</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="O46" s="2">
+        <f>AVERAGE(E46:N46)</f>
+        <v>0.90916999999999992</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f>A34</f>
-        <v>50</v>
-      </c>
-      <c r="D34">
-        <v>1.9045000000000001</v>
-      </c>
-      <c r="E34">
-        <v>1.6949000000000001</v>
-      </c>
-      <c r="F34">
-        <v>1.8664000000000001</v>
-      </c>
-      <c r="G34">
-        <v>1.9883</v>
-      </c>
-      <c r="H34">
-        <v>2.3296000000000001</v>
-      </c>
-      <c r="I34">
-        <v>2.0139</v>
-      </c>
-      <c r="J34">
-        <v>2.3111000000000002</v>
-      </c>
-      <c r="K34">
-        <v>1.7382</v>
-      </c>
-      <c r="L34">
-        <v>1.9437</v>
-      </c>
-      <c r="M34">
-        <v>1.8984000000000001</v>
-      </c>
-      <c r="N34">
-        <f>AVERAGE(D34:M34)</f>
-        <v>1.9688999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <f>A34*2</f>
+      <c r="B47">
+        <f>(A47-A46)/A46*100</f>
+        <v>400</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <f>A32*(A32-1)</f>
+        <v>2450</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3.4889000000000001</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3.8957000000000002</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3.4011</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3.2010999999999998</v>
+      </c>
+      <c r="I47" s="2">
+        <v>3.3995000000000002</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2.9805000000000001</v>
+      </c>
+      <c r="K47" s="2">
+        <v>3.2704</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2.6494</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2.9811999999999999</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3.5741000000000001</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" ref="O47:O50" si="19">AVERAGE(E47:N47)</f>
+        <v>3.2841900000000002</v>
+      </c>
+      <c r="P47">
+        <f>(O47-O46)/O46*100</f>
+        <v>261.22947303584596</v>
+      </c>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>100</v>
       </c>
-      <c r="D35">
-        <v>2.1926000000000001</v>
-      </c>
-      <c r="E35">
-        <v>2.4388000000000001</v>
-      </c>
-      <c r="F35">
-        <v>2.1008</v>
-      </c>
-      <c r="G35">
-        <v>2.5756000000000001</v>
-      </c>
-      <c r="H35">
-        <v>2.1877</v>
-      </c>
-      <c r="I35">
-        <v>2.5646</v>
-      </c>
-      <c r="J35">
-        <v>1.9533</v>
-      </c>
-      <c r="K35">
-        <v>2.2366999999999999</v>
-      </c>
-      <c r="L35">
-        <v>2.1402999999999999</v>
-      </c>
-      <c r="M35">
-        <v>2.3972000000000002</v>
-      </c>
-      <c r="N35">
-        <f>AVERAGE(D35:M35)</f>
-        <v>2.2787600000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <f>A34*5</f>
-        <v>250</v>
-      </c>
-      <c r="D36">
-        <v>3.0825999999999998</v>
-      </c>
-      <c r="E36">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="F36">
-        <v>2.7492000000000001</v>
-      </c>
-      <c r="G36">
-        <v>2.7105000000000001</v>
-      </c>
-      <c r="H36">
-        <v>3.0383</v>
-      </c>
-      <c r="I36">
-        <v>2.5829</v>
-      </c>
-      <c r="J36">
-        <v>3.6162000000000001</v>
-      </c>
-      <c r="K36">
-        <v>3.2168000000000001</v>
-      </c>
-      <c r="L36">
-        <v>3.6440000000000001</v>
-      </c>
-      <c r="M36">
-        <v>3.6858</v>
-      </c>
-      <c r="N36">
-        <f>AVERAGE(D36:M36)</f>
-        <v>3.0762299999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="B48">
+        <f t="shared" ref="B48:B50" si="20">(A48-A47)/A47*100</f>
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D48" s="2">
+        <f>A33*(A33-1)</f>
+        <v>9900</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7.2716000000000003</v>
+      </c>
+      <c r="F48" s="2">
+        <v>7.3669000000000002</v>
+      </c>
+      <c r="G48" s="2">
+        <v>7.3823999999999996</v>
+      </c>
+      <c r="H48" s="2">
+        <v>8.6239000000000008</v>
+      </c>
+      <c r="I48" s="2">
+        <v>7.1277999999999997</v>
+      </c>
+      <c r="J48" s="2">
+        <v>8.7933000000000003</v>
+      </c>
+      <c r="K48" s="2">
+        <v>6.8658999999999999</v>
+      </c>
+      <c r="L48" s="2">
+        <v>7.3459000000000003</v>
+      </c>
+      <c r="M48" s="2">
+        <v>7.9566999999999997</v>
+      </c>
+      <c r="N48" s="2">
+        <v>7.5873999999999997</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="19"/>
+        <v>7.6321800000000009</v>
+      </c>
+      <c r="P48">
+        <f t="shared" ref="P48:P50" si="21">(O48-O47)/O47*100</f>
+        <v>132.39154860102494</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>500</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="20"/>
+        <v>400</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
         <f>A34*(A34-1)</f>
-        <v>2450</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7.8851000000000004</v>
-      </c>
-      <c r="E37" s="1">
-        <v>7.2755999999999998</v>
-      </c>
-      <c r="F37" s="1">
-        <v>6.5858999999999996</v>
-      </c>
-      <c r="G37" s="1">
-        <v>6.8491</v>
-      </c>
-      <c r="H37" s="1">
-        <v>7.6707999999999998</v>
-      </c>
-      <c r="I37" s="1">
-        <v>7.6539000000000001</v>
-      </c>
-      <c r="J37" s="1">
-        <v>6.8857999999999997</v>
-      </c>
-      <c r="K37" s="1">
-        <v>6.4602000000000004</v>
-      </c>
-      <c r="L37" s="1">
-        <v>6.3529999999999998</v>
-      </c>
-      <c r="M37" s="1">
-        <v>5.9305000000000003</v>
-      </c>
-      <c r="N37" s="1">
-        <f>AVERAGE(D37:M37)</f>
-        <v>6.9549900000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38">
+        <v>249500</v>
+      </c>
+      <c r="E49" s="2">
+        <v>80.861199999999997</v>
+      </c>
+      <c r="F49" s="2">
+        <v>80.033500000000004</v>
+      </c>
+      <c r="G49" s="2">
+        <v>79.092699999999994</v>
+      </c>
+      <c r="H49" s="2">
+        <v>81.3827</v>
+      </c>
+      <c r="I49" s="2">
+        <v>78.011899999999997</v>
+      </c>
+      <c r="J49" s="2">
+        <v>85.404799999999994</v>
+      </c>
+      <c r="K49" s="2">
+        <v>83.905500000000004</v>
+      </c>
+      <c r="L49" s="2">
+        <v>97.354200000000006</v>
+      </c>
+      <c r="M49" s="2">
+        <v>87.9238</v>
+      </c>
+      <c r="N49" s="2">
+        <v>88.897199999999998</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="19"/>
+        <v>84.286749999999998</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="21"/>
+        <v>1004.3600910879983</v>
+      </c>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <f>A38</f>
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>2.2324999999999999</v>
-      </c>
-      <c r="E38">
-        <v>2.3323999999999998</v>
-      </c>
-      <c r="F38">
-        <v>2.1846999999999999</v>
-      </c>
-      <c r="G38">
-        <v>2.4702000000000002</v>
-      </c>
-      <c r="H38">
-        <v>2.3246000000000002</v>
-      </c>
-      <c r="I38">
-        <v>1.9659</v>
-      </c>
-      <c r="J38">
-        <v>2.0926</v>
-      </c>
-      <c r="K38">
-        <v>2.5207000000000002</v>
-      </c>
-      <c r="L38">
-        <v>2.331</v>
-      </c>
-      <c r="M38">
-        <v>2.2562000000000002</v>
-      </c>
-      <c r="N38">
-        <f>AVERAGE(D38:M38)</f>
-        <v>2.27108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <f>A38*2</f>
-        <v>200</v>
-      </c>
-      <c r="D39">
-        <v>3.2056</v>
-      </c>
-      <c r="E39">
-        <v>3.3218000000000001</v>
-      </c>
-      <c r="F39">
-        <v>3.2462</v>
-      </c>
-      <c r="G39">
-        <v>2.7945000000000002</v>
-      </c>
-      <c r="H39">
-        <v>2.4912000000000001</v>
-      </c>
-      <c r="I39">
-        <v>3.323</v>
-      </c>
-      <c r="J39">
-        <v>3.1970000000000001</v>
-      </c>
-      <c r="K39">
-        <v>3.3058000000000001</v>
-      </c>
-      <c r="L39">
-        <v>2.9935999999999998</v>
-      </c>
-      <c r="M39">
-        <v>2.8752</v>
-      </c>
-      <c r="N39">
-        <f>AVERAGE(D39:M39)</f>
-        <v>3.0753900000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2">
-        <f>A38*5</f>
-        <v>500</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3.5577000000000001</v>
-      </c>
-      <c r="E40" s="2">
-        <v>4.3944000000000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3.9741</v>
-      </c>
-      <c r="G40" s="3">
-        <v>3.6282000000000001</v>
-      </c>
-      <c r="H40" s="3">
-        <v>3.5535999999999999</v>
-      </c>
-      <c r="I40" s="3">
-        <v>4.0982000000000003</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1">
-        <f>A38*(A38-1)</f>
-        <v>9900</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>500</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f>A42</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <f>A42*2</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <f>A42*5</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
-        <f>A42*(A42-1)</f>
-        <v>249500</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1000</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <f>A46</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <f>A46*2</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <f>A46*5</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1">
-        <f>A46*(A46-1)</f>
+      <c r="D50" s="1">
+        <f>A35*(A35-1)</f>
         <v>999000</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="E50" s="1">
+        <v>365.68599999999998</v>
+      </c>
+      <c r="F50" s="1">
+        <v>372.65609999999998</v>
+      </c>
+      <c r="G50" s="1">
+        <v>360.67149999999998</v>
+      </c>
+      <c r="H50" s="1">
+        <v>379.60489999999999</v>
+      </c>
+      <c r="I50" s="1">
+        <v>366.3032</v>
+      </c>
+      <c r="J50" s="1">
+        <v>389.52319999999997</v>
+      </c>
+      <c r="K50" s="1">
+        <v>346.8229</v>
+      </c>
+      <c r="L50" s="1">
+        <v>353.4298</v>
+      </c>
+      <c r="M50" s="1">
+        <v>398.58249999999998</v>
+      </c>
+      <c r="N50" s="1">
+        <v>347.43290000000002</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="19"/>
+        <v>368.07129999999995</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="21"/>
+        <v>336.68939661334667</v>
+      </c>
+      <c r="Q50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
